--- a/Milerova_ALG2_sem_Booking/ClientInfo.xlsx
+++ b/Milerova_ALG2_sem_Booking/ClientInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marke\Documents\NetBeansProjects\ALP2\Milerova_ALG2_sem_Booking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4CA98F-4B65-4799-A716-0779AD624455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060B12FA-B9E2-4128-8C89-03158B470792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>kanadská</t>
   </si>
@@ -231,13 +231,25 @@
   </si>
   <si>
     <t>Pilkenton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin </t>
+  </si>
+  <si>
+    <t>Novák</t>
+  </si>
+  <si>
+    <t>řecká</t>
+  </si>
+  <si>
+    <t>britská</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,13 +257,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -263,15 +288,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Špatně" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection sqref="A1:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -966,6 +995,34 @@
         <v>87</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
